--- a/papers/suplementbook/content/cohorte/data/mortality.xlsx
+++ b/papers/suplementbook/content/cohorte/data/mortality.xlsx
@@ -31,7 +31,7 @@
     <x:t>Aldersklassens dødshyppighed (pr. 100.000)</x:t>
   </x:si>
   <x:si>
-    <x:t>2069</x:t>
+    <x:t>2025</x:t>
   </x:si>
   <x:si>
     <x:t>0 år</x:t>
@@ -819,10 +819,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D4" s="4" t="n">
-        <x:v>51.8</x:v>
+        <x:v>253.5</x:v>
       </x:c>
       <x:c r="E4" s="4" t="n">
-        <x:v>36.8</x:v>
+        <x:v>209.3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -830,10 +830,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D5" s="4" t="n">
-        <x:v>4.7</x:v>
+        <x:v>25.3</x:v>
       </x:c>
       <x:c r="E5" s="4" t="n">
-        <x:v>4.2</x:v>
+        <x:v>23.8</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -841,10 +841,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D6" s="4" t="n">
-        <x:v>2.1</x:v>
+        <x:v>12.3</x:v>
       </x:c>
       <x:c r="E6" s="4" t="n">
-        <x:v>1.1</x:v>
+        <x:v>6.5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -852,10 +852,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D7" s="4" t="n">
-        <x:v>1.1</x:v>
+        <x:v>6.7</x:v>
       </x:c>
       <x:c r="E7" s="4" t="n">
-        <x:v>0.8</x:v>
+        <x:v>4.6</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -863,10 +863,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D8" s="4" t="n">
-        <x:v>0.9</x:v>
+        <x:v>6.1</x:v>
       </x:c>
       <x:c r="E8" s="4" t="n">
-        <x:v>0.8</x:v>
+        <x:v>4.3</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -874,10 +874,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D9" s="4" t="n">
-        <x:v>0.7</x:v>
+        <x:v>5.2</x:v>
       </x:c>
       <x:c r="E9" s="4" t="n">
-        <x:v>0.4</x:v>
+        <x:v>2.5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -885,10 +885,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D10" s="4" t="n">
-        <x:v>0.5</x:v>
+        <x:v>3.9</x:v>
       </x:c>
       <x:c r="E10" s="4" t="n">
-        <x:v>0.5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -896,10 +896,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D11" s="4" t="n">
-        <x:v>0.4</x:v>
+        <x:v>3.2</x:v>
       </x:c>
       <x:c r="E11" s="4" t="n">
-        <x:v>0.8</x:v>
+        <x:v>4.3</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -907,10 +907,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D12" s="4" t="n">
-        <x:v>0.4</x:v>
+        <x:v>3.2</x:v>
       </x:c>
       <x:c r="E12" s="4" t="n">
-        <x:v>0.6</x:v>
+        <x:v>3.2</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -918,10 +918,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D13" s="4" t="n">
-        <x:v>0.4</x:v>
+        <x:v>3.4</x:v>
       </x:c>
       <x:c r="E13" s="4" t="n">
-        <x:v>0.5</x:v>
+        <x:v>2.6</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -929,10 +929,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D14" s="4" t="n">
-        <x:v>0.5</x:v>
+        <x:v>4.2</x:v>
       </x:c>
       <x:c r="E14" s="4" t="n">
-        <x:v>0.5</x:v>
+        <x:v>2.8</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
@@ -940,10 +940,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D15" s="4" t="n">
-        <x:v>0.7</x:v>
+        <x:v>5.3</x:v>
       </x:c>
       <x:c r="E15" s="4" t="n">
-        <x:v>0.5</x:v>
+        <x:v>2.4</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
@@ -951,10 +951,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D16" s="4" t="n">
-        <x:v>0.6</x:v>
+        <x:v>4.6</x:v>
       </x:c>
       <x:c r="E16" s="4" t="n">
-        <x:v>1</x:v>
+        <x:v>4.8</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
@@ -962,10 +962,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D17" s="4" t="n">
-        <x:v>0.4</x:v>
+        <x:v>3.2</x:v>
       </x:c>
       <x:c r="E17" s="4" t="n">
-        <x:v>0.4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
@@ -973,10 +973,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D18" s="4" t="n">
-        <x:v>0.8</x:v>
+        <x:v>5.3</x:v>
       </x:c>
       <x:c r="E18" s="4" t="n">
-        <x:v>0.7</x:v>
+        <x:v>3.4</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
@@ -984,10 +984,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D19" s="4" t="n">
-        <x:v>1.3</x:v>
+        <x:v>8.5</x:v>
       </x:c>
       <x:c r="E19" s="4" t="n">
-        <x:v>1.4</x:v>
+        <x:v>6.4</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
@@ -995,10 +995,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D20" s="4" t="n">
-        <x:v>1.5</x:v>
+        <x:v>9.7</x:v>
       </x:c>
       <x:c r="E20" s="4" t="n">
-        <x:v>2.5</x:v>
+        <x:v>10.8</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
@@ -1006,10 +1006,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D21" s="4" t="n">
-        <x:v>2.6</x:v>
+        <x:v>15.5</x:v>
       </x:c>
       <x:c r="E21" s="4" t="n">
-        <x:v>1.5</x:v>
+        <x:v>6.4</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
@@ -1017,10 +1017,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D22" s="4" t="n">
-        <x:v>3.5</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E22" s="4" t="n">
-        <x:v>2.1</x:v>
+        <x:v>8.6</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
@@ -1028,10 +1028,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D23" s="4" t="n">
-        <x:v>4.9</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E23" s="4" t="n">
-        <x:v>2.6</x:v>
+        <x:v>10.4</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
@@ -1039,10 +1039,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D24" s="4" t="n">
-        <x:v>5.4</x:v>
+        <x:v>27.5</x:v>
       </x:c>
       <x:c r="E24" s="4" t="n">
-        <x:v>3.5</x:v>
+        <x:v>13.3</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
@@ -1050,10 +1050,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D25" s="4" t="n">
-        <x:v>6.2</x:v>
+        <x:v>29.7</x:v>
       </x:c>
       <x:c r="E25" s="4" t="n">
-        <x:v>3.2</x:v>
+        <x:v>11.8</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
@@ -1061,10 +1061,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D26" s="4" t="n">
-        <x:v>6.7</x:v>
+        <x:v>30.6</x:v>
       </x:c>
       <x:c r="E26" s="4" t="n">
-        <x:v>3.1</x:v>
+        <x:v>11.4</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
@@ -1072,10 +1072,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D27" s="4" t="n">
-        <x:v>7.5</x:v>
+        <x:v>32.6</x:v>
       </x:c>
       <x:c r="E27" s="4" t="n">
-        <x:v>3.5</x:v>
+        <x:v>12.4</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
@@ -1083,10 +1083,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="D28" s="4" t="n">
-        <x:v>8.2</x:v>
+        <x:v>34.8</x:v>
       </x:c>
       <x:c r="E28" s="4" t="n">
-        <x:v>3.4</x:v>
+        <x:v>11.8</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
@@ -1094,10 +1094,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="D29" s="4" t="n">
-        <x:v>8.6</x:v>
+        <x:v>35.8</x:v>
       </x:c>
       <x:c r="E29" s="4" t="n">
-        <x:v>4.2</x:v>
+        <x:v>14.3</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
@@ -1105,10 +1105,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D30" s="4" t="n">
-        <x:v>8.8</x:v>
+        <x:v>36.1</x:v>
       </x:c>
       <x:c r="E30" s="4" t="n">
-        <x:v>3</x:v>
+        <x:v>10.3</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
@@ -1116,10 +1116,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="D31" s="4" t="n">
-        <x:v>8.8</x:v>
+        <x:v>35.8</x:v>
       </x:c>
       <x:c r="E31" s="4" t="n">
-        <x:v>4.2</x:v>
+        <x:v>14.3</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
@@ -1127,10 +1127,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="D32" s="4" t="n">
-        <x:v>8.5</x:v>
+        <x:v>34.8</x:v>
       </x:c>
       <x:c r="E32" s="4" t="n">
-        <x:v>4.2</x:v>
+        <x:v>14.3</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
@@ -1138,10 +1138,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D33" s="4" t="n">
-        <x:v>9.9</x:v>
+        <x:v>41.1</x:v>
       </x:c>
       <x:c r="E33" s="4" t="n">
-        <x:v>5.5</x:v>
+        <x:v>18.6</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
@@ -1149,10 +1149,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="D34" s="4" t="n">
-        <x:v>8.8</x:v>
+        <x:v>36.9</x:v>
       </x:c>
       <x:c r="E34" s="4" t="n">
-        <x:v>6.2</x:v>
+        <x:v>21.2</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
@@ -1160,10 +1160,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="D35" s="4" t="n">
-        <x:v>9.9</x:v>
+        <x:v>42.5</x:v>
       </x:c>
       <x:c r="E35" s="4" t="n">
-        <x:v>6</x:v>
+        <x:v>20.5</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
@@ -1171,10 +1171,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D36" s="4" t="n">
-        <x:v>9</x:v>
+        <x:v>39.2</x:v>
       </x:c>
       <x:c r="E36" s="4" t="n">
-        <x:v>6.9</x:v>
+        <x:v>24.1</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
@@ -1182,10 +1182,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D37" s="4" t="n">
-        <x:v>9.9</x:v>
+        <x:v>43.9</x:v>
       </x:c>
       <x:c r="E37" s="4" t="n">
-        <x:v>7</x:v>
+        <x:v>24.7</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
@@ -1193,10 +1193,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="D38" s="4" t="n">
-        <x:v>9.9</x:v>
+        <x:v>44.4</x:v>
       </x:c>
       <x:c r="E38" s="4" t="n">
-        <x:v>7.2</x:v>
+        <x:v>26.1</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
@@ -1204,10 +1204,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="D39" s="4" t="n">
-        <x:v>12.4</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E39" s="4" t="n">
-        <x:v>7.4</x:v>
+        <x:v>27.3</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
@@ -1215,10 +1215,10 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="D40" s="4" t="n">
-        <x:v>13.6</x:v>
+        <x:v>62.1</x:v>
       </x:c>
       <x:c r="E40" s="4" t="n">
-        <x:v>6.8</x:v>
+        <x:v>25.7</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
@@ -1226,10 +1226,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="D41" s="4" t="n">
-        <x:v>13.6</x:v>
+        <x:v>62.2</x:v>
       </x:c>
       <x:c r="E41" s="4" t="n">
-        <x:v>7.5</x:v>
+        <x:v>28.6</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:5">
@@ -1237,10 +1237,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="D42" s="4" t="n">
-        <x:v>12.5</x:v>
+        <x:v>57.3</x:v>
       </x:c>
       <x:c r="E42" s="4" t="n">
-        <x:v>9.1</x:v>
+        <x:v>35.2</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:5">
@@ -1248,10 +1248,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="D43" s="4" t="n">
-        <x:v>16.2</x:v>
+        <x:v>74.2</x:v>
       </x:c>
       <x:c r="E43" s="4" t="n">
-        <x:v>11.4</x:v>
+        <x:v>44.7</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:5">
@@ -1259,10 +1259,10 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="D44" s="4" t="n">
-        <x:v>15.7</x:v>
+        <x:v>71.1</x:v>
       </x:c>
       <x:c r="E44" s="4" t="n">
-        <x:v>11.6</x:v>
+        <x:v>45.8</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:5">
@@ -1270,10 +1270,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="D45" s="4" t="n">
-        <x:v>20.6</x:v>
+        <x:v>91.3</x:v>
       </x:c>
       <x:c r="E45" s="4" t="n">
-        <x:v>12.2</x:v>
+        <x:v>48.3</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:5">
@@ -1281,10 +1281,10 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="D46" s="4" t="n">
-        <x:v>21.8</x:v>
+        <x:v>93.8</x:v>
       </x:c>
       <x:c r="E46" s="4" t="n">
-        <x:v>14</x:v>
+        <x:v>55.4</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:5">
@@ -1292,10 +1292,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="D47" s="4" t="n">
-        <x:v>23.6</x:v>
+        <x:v>97.6</x:v>
       </x:c>
       <x:c r="E47" s="4" t="n">
-        <x:v>15</x:v>
+        <x:v>59.2</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:5">
@@ -1303,10 +1303,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="D48" s="4" t="n">
-        <x:v>29.9</x:v>
+        <x:v>118.6</x:v>
       </x:c>
       <x:c r="E48" s="4" t="n">
-        <x:v>16.8</x:v>
+        <x:v>65.7</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:5">
@@ -1314,10 +1314,10 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="D49" s="4" t="n">
-        <x:v>37.1</x:v>
+        <x:v>139.9</x:v>
       </x:c>
       <x:c r="E49" s="4" t="n">
-        <x:v>21.9</x:v>
+        <x:v>84.6</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:5">
@@ -1325,10 +1325,10 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="D50" s="4" t="n">
-        <x:v>44</x:v>
+        <x:v>157.7</x:v>
       </x:c>
       <x:c r="E50" s="4" t="n">
-        <x:v>21.7</x:v>
+        <x:v>82.4</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:5">
@@ -1336,10 +1336,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="D51" s="4" t="n">
-        <x:v>51.7</x:v>
+        <x:v>176.1</x:v>
       </x:c>
       <x:c r="E51" s="4" t="n">
-        <x:v>26.4</x:v>
+        <x:v>98.2</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:5">
@@ -1347,10 +1347,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="D52" s="4" t="n">
-        <x:v>62.1</x:v>
+        <x:v>201.3</x:v>
       </x:c>
       <x:c r="E52" s="4" t="n">
-        <x:v>30.7</x:v>
+        <x:v>111.7</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:5">
@@ -1358,10 +1358,10 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="D53" s="4" t="n">
-        <x:v>72.5</x:v>
+        <x:v>224.1</x:v>
       </x:c>
       <x:c r="E53" s="4" t="n">
-        <x:v>37.2</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:5">
@@ -1369,10 +1369,10 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="D54" s="4" t="n">
-        <x:v>85.5</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E54" s="4" t="n">
-        <x:v>40.1</x:v>
+        <x:v>156.1</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:5">
@@ -1380,10 +1380,10 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="D55" s="4" t="n">
-        <x:v>101</x:v>
+        <x:v>276.1</x:v>
       </x:c>
       <x:c r="E55" s="4" t="n">
-        <x:v>48.6</x:v>
+        <x:v>165.8</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:5">
@@ -1391,10 +1391,10 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="D56" s="4" t="n">
-        <x:v>118.7</x:v>
+        <x:v>260.4</x:v>
       </x:c>
       <x:c r="E56" s="4" t="n">
-        <x:v>57.4</x:v>
+        <x:v>143.3</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:5">
@@ -1402,10 +1402,10 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="D57" s="4" t="n">
-        <x:v>135</x:v>
+        <x:v>334.4</x:v>
       </x:c>
       <x:c r="E57" s="4" t="n">
-        <x:v>68.2</x:v>
+        <x:v>187.5</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:5">
@@ -1413,10 +1413,10 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="D58" s="4" t="n">
-        <x:v>150.5</x:v>
+        <x:v>402.1</x:v>
       </x:c>
       <x:c r="E58" s="4" t="n">
-        <x:v>76</x:v>
+        <x:v>183.9</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:5">
@@ -1424,10 +1424,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="D59" s="4" t="n">
-        <x:v>173.7</x:v>
+        <x:v>413.2</x:v>
       </x:c>
       <x:c r="E59" s="4" t="n">
-        <x:v>89</x:v>
+        <x:v>248.3</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:5">
@@ -1435,10 +1435,10 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="D60" s="4" t="n">
-        <x:v>195.5</x:v>
+        <x:v>447.2</x:v>
       </x:c>
       <x:c r="E60" s="4" t="n">
-        <x:v>96</x:v>
+        <x:v>254.2</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:5">
@@ -1446,10 +1446,10 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="D61" s="4" t="n">
-        <x:v>218.5</x:v>
+        <x:v>471.8</x:v>
       </x:c>
       <x:c r="E61" s="4" t="n">
-        <x:v>111.5</x:v>
+        <x:v>302.5</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:5">
@@ -1457,10 +1457,10 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="D62" s="4" t="n">
-        <x:v>232.3</x:v>
+        <x:v>548.1</x:v>
       </x:c>
       <x:c r="E62" s="4" t="n">
-        <x:v>117.1</x:v>
+        <x:v>332.8</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:5">
@@ -1468,10 +1468,10 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="D63" s="4" t="n">
-        <x:v>258.8</x:v>
+        <x:v>574.9</x:v>
       </x:c>
       <x:c r="E63" s="4" t="n">
-        <x:v>135.6</x:v>
+        <x:v>374.2</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:5">
@@ -1479,10 +1479,10 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="D64" s="4" t="n">
-        <x:v>276.3</x:v>
+        <x:v>592.1</x:v>
       </x:c>
       <x:c r="E64" s="4" t="n">
-        <x:v>150.2</x:v>
+        <x:v>376.4</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:5">
@@ -1490,10 +1490,10 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="D65" s="4" t="n">
-        <x:v>296.3</x:v>
+        <x:v>687.5</x:v>
       </x:c>
       <x:c r="E65" s="4" t="n">
-        <x:v>170.8</x:v>
+        <x:v>462.4</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:5">
@@ -1501,10 +1501,10 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="D66" s="4" t="n">
-        <x:v>316.8</x:v>
+        <x:v>768.1</x:v>
       </x:c>
       <x:c r="E66" s="4" t="n">
-        <x:v>192.5</x:v>
+        <x:v>456.1</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:5">
@@ -1512,10 +1512,10 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="D67" s="4" t="n">
-        <x:v>348.6</x:v>
+        <x:v>869</x:v>
       </x:c>
       <x:c r="E67" s="4" t="n">
-        <x:v>211.1</x:v>
+        <x:v>556.2</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:5">
@@ -1523,10 +1523,10 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="D68" s="4" t="n">
-        <x:v>367.9</x:v>
+        <x:v>1037.9</x:v>
       </x:c>
       <x:c r="E68" s="4" t="n">
-        <x:v>230.3</x:v>
+        <x:v>617.8</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:5">
@@ -1534,10 +1534,10 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="D69" s="4" t="n">
-        <x:v>383.5</x:v>
+        <x:v>1112.8</x:v>
       </x:c>
       <x:c r="E69" s="4" t="n">
-        <x:v>251.1</x:v>
+        <x:v>711.5</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:5">
@@ -1545,10 +1545,10 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="D70" s="4" t="n">
-        <x:v>421.1</x:v>
+        <x:v>1220.7</x:v>
       </x:c>
       <x:c r="E70" s="4" t="n">
-        <x:v>277</x:v>
+        <x:v>720.6</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:5">
@@ -1556,10 +1556,10 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="D71" s="4" t="n">
-        <x:v>438.4</x:v>
+        <x:v>1281.5</x:v>
       </x:c>
       <x:c r="E71" s="4" t="n">
-        <x:v>301.8</x:v>
+        <x:v>949.1</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:5">
@@ -1567,10 +1567,10 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="D72" s="4" t="n">
-        <x:v>463</x:v>
+        <x:v>1509.5</x:v>
       </x:c>
       <x:c r="E72" s="4" t="n">
-        <x:v>335.3</x:v>
+        <x:v>940.5</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:5">
@@ -1578,10 +1578,10 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D73" s="4" t="n">
-        <x:v>510.2</x:v>
+        <x:v>1720.5</x:v>
       </x:c>
       <x:c r="E73" s="4" t="n">
-        <x:v>362.9</x:v>
+        <x:v>1090.3</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:5">
@@ -1589,10 +1589,10 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="D74" s="4" t="n">
-        <x:v>537.5</x:v>
+        <x:v>1827.7</x:v>
       </x:c>
       <x:c r="E74" s="4" t="n">
-        <x:v>421.4</x:v>
+        <x:v>1191.1</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:5">
@@ -1600,10 +1600,10 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="D75" s="4" t="n">
-        <x:v>581.7</x:v>
+        <x:v>1953.3</x:v>
       </x:c>
       <x:c r="E75" s="4" t="n">
-        <x:v>470.8</x:v>
+        <x:v>1353</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:5">
@@ -1611,10 +1611,10 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="D76" s="4" t="n">
-        <x:v>625.7</x:v>
+        <x:v>2183.3</x:v>
       </x:c>
       <x:c r="E76" s="4" t="n">
-        <x:v>524.4</x:v>
+        <x:v>1380.5</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:5">
@@ -1622,10 +1622,10 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="D77" s="4" t="n">
-        <x:v>715.3</x:v>
+        <x:v>2344.9</x:v>
       </x:c>
       <x:c r="E77" s="4" t="n">
-        <x:v>620.7</x:v>
+        <x:v>1616.7</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:5">
@@ -1633,10 +1633,10 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="D78" s="4" t="n">
-        <x:v>790.7</x:v>
+        <x:v>2464.1</x:v>
       </x:c>
       <x:c r="E78" s="4" t="n">
-        <x:v>704.8</x:v>
+        <x:v>1754.6</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:5">
@@ -1644,10 +1644,10 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="D79" s="4" t="n">
-        <x:v>911.8</x:v>
+        <x:v>2839.4</x:v>
       </x:c>
       <x:c r="E79" s="4" t="n">
-        <x:v>815.5</x:v>
+        <x:v>1916.8</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:5">
@@ -1655,10 +1655,10 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="D80" s="4" t="n">
-        <x:v>1022.4</x:v>
+        <x:v>3162.2</x:v>
       </x:c>
       <x:c r="E80" s="4" t="n">
-        <x:v>959.6</x:v>
+        <x:v>2131.3</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:5">
@@ -1666,10 +1666,10 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="D81" s="4" t="n">
-        <x:v>1176.3</x:v>
+        <x:v>3396.5</x:v>
       </x:c>
       <x:c r="E81" s="4" t="n">
-        <x:v>1086</x:v>
+        <x:v>2428.7</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:5">
@@ -1677,10 +1677,10 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="D82" s="4" t="n">
-        <x:v>1392.9</x:v>
+        <x:v>3880.9</x:v>
       </x:c>
       <x:c r="E82" s="4" t="n">
-        <x:v>1329.9</x:v>
+        <x:v>2670.5</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:5">
@@ -1688,10 +1688,10 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="D83" s="4" t="n">
-        <x:v>1619.3</x:v>
+        <x:v>4242.2</x:v>
       </x:c>
       <x:c r="E83" s="4" t="n">
-        <x:v>1490.7</x:v>
+        <x:v>3040.3</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:5">
@@ -1699,10 +1699,10 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="D84" s="4" t="n">
-        <x:v>1910.1</x:v>
+        <x:v>4762.3</x:v>
       </x:c>
       <x:c r="E84" s="4" t="n">
-        <x:v>1780</x:v>
+        <x:v>3384.7</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:5">
@@ -1710,10 +1710,10 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="D85" s="4" t="n">
-        <x:v>2296.4</x:v>
+        <x:v>5305.1</x:v>
       </x:c>
       <x:c r="E85" s="4" t="n">
-        <x:v>2076.1</x:v>
+        <x:v>3890.8</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:5">
@@ -1721,10 +1721,10 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="D86" s="4" t="n">
-        <x:v>2778</x:v>
+        <x:v>6065.3</x:v>
       </x:c>
       <x:c r="E86" s="4" t="n">
-        <x:v>2418.7</x:v>
+        <x:v>4391.1</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:5">
@@ -1732,10 +1732,10 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="D87" s="4" t="n">
-        <x:v>3314.4</x:v>
+        <x:v>6984.1</x:v>
       </x:c>
       <x:c r="E87" s="4" t="n">
-        <x:v>2891</x:v>
+        <x:v>4938.4</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:5">
@@ -1743,10 +1743,10 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="D88" s="4" t="n">
-        <x:v>3972.6</x:v>
+        <x:v>7728.5</x:v>
       </x:c>
       <x:c r="E88" s="4" t="n">
-        <x:v>3347.2</x:v>
+        <x:v>5662.1</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:5">
@@ -1754,10 +1754,10 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="D89" s="4" t="n">
-        <x:v>4788.8</x:v>
+        <x:v>8210.8</x:v>
       </x:c>
       <x:c r="E89" s="4" t="n">
-        <x:v>3765.6</x:v>
+        <x:v>6254.9</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:5">
@@ -1765,10 +1765,10 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="D90" s="4" t="n">
-        <x:v>5628.7</x:v>
+        <x:v>9561.1</x:v>
       </x:c>
       <x:c r="E90" s="4" t="n">
-        <x:v>4432.2</x:v>
+        <x:v>7060.5</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:5">
@@ -1776,10 +1776,10 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="D91" s="4" t="n">
-        <x:v>6865.3</x:v>
+        <x:v>11572.7</x:v>
       </x:c>
       <x:c r="E91" s="4" t="n">
-        <x:v>5178.8</x:v>
+        <x:v>8286.3</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:5">
@@ -1787,10 +1787,10 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="D92" s="4" t="n">
-        <x:v>8153.9</x:v>
+        <x:v>12261.9</x:v>
       </x:c>
       <x:c r="E92" s="4" t="n">
-        <x:v>6039.5</x:v>
+        <x:v>9182.2</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:5">
@@ -1798,10 +1798,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="D93" s="4" t="n">
-        <x:v>9469</x:v>
+        <x:v>14494.7</x:v>
       </x:c>
       <x:c r="E93" s="4" t="n">
-        <x:v>6775.4</x:v>
+        <x:v>10404</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:5">
@@ -1809,10 +1809,10 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="D94" s="4" t="n">
-        <x:v>10925.4</x:v>
+        <x:v>15919.4</x:v>
       </x:c>
       <x:c r="E94" s="4" t="n">
-        <x:v>8102.5</x:v>
+        <x:v>12324</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:5">
@@ -1820,10 +1820,10 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="D95" s="4" t="n">
-        <x:v>12757.5</x:v>
+        <x:v>17826.4</x:v>
       </x:c>
       <x:c r="E95" s="4" t="n">
-        <x:v>9376.8</x:v>
+        <x:v>13536.2</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:5">
@@ -1831,10 +1831,10 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="D96" s="4" t="n">
-        <x:v>14845.7</x:v>
+        <x:v>19907.8</x:v>
       </x:c>
       <x:c r="E96" s="4" t="n">
-        <x:v>10573.3</x:v>
+        <x:v>15978.2</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:5">
@@ -1842,10 +1842,10 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="D97" s="4" t="n">
-        <x:v>17208.2</x:v>
+        <x:v>22166.6</x:v>
       </x:c>
       <x:c r="E97" s="4" t="n">
-        <x:v>11942.6</x:v>
+        <x:v>17086</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:5">
@@ -1853,10 +1853,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="D98" s="4" t="n">
-        <x:v>19859</x:v>
+        <x:v>24603</x:v>
       </x:c>
       <x:c r="E98" s="4" t="n">
-        <x:v>13645.9</x:v>
+        <x:v>19120</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:5">
@@ -1864,10 +1864,10 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="D99" s="4" t="n">
-        <x:v>22805.7</x:v>
+        <x:v>27213.5</x:v>
       </x:c>
       <x:c r="E99" s="4" t="n">
-        <x:v>15549.3</x:v>
+        <x:v>21334</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:5">
@@ -1875,10 +1875,10 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="D100" s="4" t="n">
-        <x:v>26047.6</x:v>
+        <x:v>29990.9</x:v>
       </x:c>
       <x:c r="E100" s="4" t="n">
-        <x:v>17663.9</x:v>
+        <x:v>23729</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:5">
@@ -1886,10 +1886,10 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="D101" s="4" t="n">
-        <x:v>29573.7</x:v>
+        <x:v>32923.5</x:v>
       </x:c>
       <x:c r="E101" s="4" t="n">
-        <x:v>19997.9</x:v>
+        <x:v>26303</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:5">
@@ -1897,10 +1897,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="D102" s="4" t="n">
-        <x:v>33361.8</x:v>
+        <x:v>35995.4</x:v>
       </x:c>
       <x:c r="E102" s="4" t="n">
-        <x:v>22555.8</x:v>
+        <x:v>29049.9</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:5">
@@ -1908,10 +1908,10 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="D103" s="4" t="n">
-        <x:v>37377.5</x:v>
+        <x:v>39186.5</x:v>
       </x:c>
       <x:c r="E103" s="4" t="n">
-        <x:v>25337.3</x:v>
+        <x:v>31959.3</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:5">
@@ -1919,10 +1919,10 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="D104" s="4" t="n">
-        <x:v>41575.1</x:v>
+        <x:v>42472.7</x:v>
       </x:c>
       <x:c r="E104" s="4" t="n">
-        <x:v>28336.3</x:v>
+        <x:v>35016.3</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:5">
@@ -1930,10 +1930,10 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="D105" s="4" t="n">
-        <x:v>45898.6</x:v>
+        <x:v>45826.9</x:v>
       </x:c>
       <x:c r="E105" s="4" t="n">
-        <x:v>31540.3</x:v>
+        <x:v>38201.4</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:5">
@@ -1941,10 +1941,10 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="D106" s="4" t="n">
-        <x:v>50284.8</x:v>
+        <x:v>49219.4</x:v>
       </x:c>
       <x:c r="E106" s="4" t="n">
-        <x:v>34930</x:v>
+        <x:v>41491.3</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:5">
@@ -1952,10 +1952,10 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="D107" s="4" t="n">
-        <x:v>54666.5</x:v>
+        <x:v>52619</x:v>
       </x:c>
       <x:c r="E107" s="4" t="n">
-        <x:v>38479.3</x:v>
+        <x:v>44858.9</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:5">
@@ -1963,10 +1963,10 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="D108" s="4" t="n">
-        <x:v>58977.1</x:v>
+        <x:v>55994.5</x:v>
       </x:c>
       <x:c r="E108" s="4" t="n">
-        <x:v>42155.5</x:v>
+        <x:v>48274.3</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:5">
@@ -1974,10 +1974,10 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="D109" s="4" t="n">
-        <x:v>63154.2</x:v>
+        <x:v>59315.5</x:v>
       </x:c>
       <x:c r="E109" s="4" t="n">
-        <x:v>45920.9</x:v>
+        <x:v>51705.9</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:5">
@@ -1985,10 +1985,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="D110" s="4" t="n">
-        <x:v>67142.8</x:v>
+        <x:v>62553.5</x:v>
       </x:c>
       <x:c r="E110" s="4" t="n">
-        <x:v>49733.3</x:v>
+        <x:v>55121.5</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:5">
@@ -1996,10 +1996,10 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="D111" s="4" t="n">
-        <x:v>70898.6</x:v>
+        <x:v>65682.9</x:v>
       </x:c>
       <x:c r="E111" s="4" t="n">
-        <x:v>53548.9</x:v>
+        <x:v>58489.4</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:5">
@@ -2007,10 +2007,10 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="D112" s="4" t="n">
-        <x:v>74388.9</x:v>
+        <x:v>68681.6</x:v>
       </x:c>
       <x:c r="E112" s="4" t="n">
-        <x:v>57323.4</x:v>
+        <x:v>61779.9</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:5">
@@ -2018,10 +2018,10 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="D113" s="4" t="n">
-        <x:v>77592.9</x:v>
+        <x:v>71531.9</x:v>
       </x:c>
       <x:c r="E113" s="4" t="n">
-        <x:v>61014.5</x:v>
+        <x:v>64965.7</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:5">
